--- a/team_specific_matrix/Charleston So._A.xlsx
+++ b/team_specific_matrix/Charleston So._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.154639175257732</v>
+        <v>0.1742424242424243</v>
       </c>
       <c r="C2">
-        <v>0.6134020618556701</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005154639175257732</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1237113402061856</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1030927835051546</v>
+        <v>0.07954545454545454</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01639344262295082</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C3">
-        <v>0.01639344262295082</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04918032786885246</v>
+        <v>0.05031446540880503</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7786885245901639</v>
+        <v>0.7484276729559748</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.139344262295082</v>
+        <v>0.1635220125786163</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08275862068965517</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02068965517241379</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04827586206896552</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2827586206896552</v>
+        <v>0.3005181347150259</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01379310344827586</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1379310344827586</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="R6">
-        <v>0.06206896551724138</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="S6">
-        <v>0.3517241379310345</v>
+        <v>0.3367875647668394</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1085271317829457</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0310077519379845</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="E7">
-        <v>0.007751937984496124</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="F7">
-        <v>0.05426356589147287</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09302325581395349</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007751937984496124</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1782945736434109</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="R7">
-        <v>0.06201550387596899</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="S7">
-        <v>0.4573643410852713</v>
+        <v>0.4742857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09562841530054644</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01639344262295082</v>
+        <v>0.01691331923890063</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07377049180327869</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1174863387978142</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03005464480874317</v>
+        <v>0.02536997885835095</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1530054644808743</v>
+        <v>0.1585623678646934</v>
       </c>
       <c r="R8">
-        <v>0.07377049180327869</v>
+        <v>0.08456659619450317</v>
       </c>
       <c r="S8">
-        <v>0.4398907103825136</v>
+        <v>0.4418604651162791</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06140350877192982</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06140350877192982</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1228070175438596</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1754385964912281</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="R9">
-        <v>0.09649122807017543</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.4824561403508772</v>
+        <v>0.4652777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1123456790123457</v>
+        <v>0.1143641354071363</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01234567901234568</v>
+        <v>0.01097895699908509</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06419753086419754</v>
+        <v>0.06587374199451052</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1160493827160494</v>
+        <v>0.1171088746569076</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01604938271604938</v>
+        <v>0.01555352241537054</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1975308641975309</v>
+        <v>0.202195791399817</v>
       </c>
       <c r="R10">
-        <v>0.07407407407407407</v>
+        <v>0.07502287282708142</v>
       </c>
       <c r="S10">
-        <v>0.4074074074074074</v>
+        <v>0.3989021043000915</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.16289592760181</v>
+        <v>0.1557093425605536</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09502262443438914</v>
+        <v>0.07958477508650519</v>
       </c>
       <c r="K11">
-        <v>0.1990950226244344</v>
+        <v>0.1903114186851211</v>
       </c>
       <c r="L11">
-        <v>0.5339366515837104</v>
+        <v>0.5674740484429066</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009049773755656109</v>
+        <v>0.006920415224913495</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6942148760330579</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2231404958677686</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="K12">
-        <v>0.01652892561983471</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="L12">
-        <v>0.01652892561983471</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04958677685950413</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5588235294117647</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3823529411764706</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02097902097902098</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1958041958041958</v>
+        <v>0.2124352331606218</v>
       </c>
       <c r="I15">
-        <v>0.06293706293706294</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="J15">
-        <v>0.2867132867132867</v>
+        <v>0.2849740932642487</v>
       </c>
       <c r="K15">
-        <v>0.08391608391608392</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02097902097902098</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1048951048951049</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2237762237762238</v>
+        <v>0.2124352331606218</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03076923076923077</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2076923076923077</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="I16">
-        <v>0.06923076923076923</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="J16">
-        <v>0.3461538461538461</v>
+        <v>0.3779069767441861</v>
       </c>
       <c r="K16">
-        <v>0.1384615384615385</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01538461538461539</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04615384615384616</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1461538461538462</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01071428571428571</v>
+        <v>0.01846965699208443</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.225</v>
+        <v>0.2163588390501319</v>
       </c>
       <c r="I17">
-        <v>0.05714285714285714</v>
+        <v>0.0554089709762533</v>
       </c>
       <c r="J17">
-        <v>0.3785714285714286</v>
+        <v>0.3931398416886543</v>
       </c>
       <c r="K17">
-        <v>0.09642857142857143</v>
+        <v>0.09762532981530343</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01428571428571429</v>
+        <v>0.01846965699208443</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07142857142857142</v>
+        <v>0.0712401055408971</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1464285714285714</v>
+        <v>0.129287598944591</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01724137931034483</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.25</v>
+        <v>0.220125786163522</v>
       </c>
       <c r="I18">
-        <v>0.07758620689655173</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="J18">
-        <v>0.3706896551724138</v>
+        <v>0.389937106918239</v>
       </c>
       <c r="K18">
-        <v>0.1206896551724138</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01724137931034483</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04310344827586207</v>
+        <v>0.05031446540880503</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.103448275862069</v>
+        <v>0.119496855345912</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01530054644808743</v>
+        <v>0.01602023608768971</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2415300546448088</v>
+        <v>0.2377740303541315</v>
       </c>
       <c r="I19">
-        <v>0.07978142076502732</v>
+        <v>0.07419898819561552</v>
       </c>
       <c r="J19">
-        <v>0.3387978142076503</v>
+        <v>0.3473861720067454</v>
       </c>
       <c r="K19">
-        <v>0.112568306010929</v>
+        <v>0.1138279932546374</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02841530054644809</v>
+        <v>0.02613827993254637</v>
       </c>
       <c r="N19">
-        <v>0.001092896174863388</v>
+        <v>0.0008431703204047217</v>
       </c>
       <c r="O19">
-        <v>0.05683060109289618</v>
+        <v>0.05986509274873524</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1256830601092896</v>
+        <v>0.1239460370994941</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Charleston So._A.xlsx
+++ b/team_specific_matrix/Charleston So._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1742424242424243</v>
+        <v>0.1743772241992882</v>
       </c>
       <c r="C2">
-        <v>0.5909090909090909</v>
+        <v>0.5871886120996441</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007575757575757576</v>
+        <v>0.01067615658362989</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1477272727272727</v>
+        <v>0.1423487544483986</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07954545454545454</v>
+        <v>0.08540925266903915</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01886792452830189</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="C3">
-        <v>0.01886792452830189</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05031446540880503</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7484276729559748</v>
+        <v>0.7218934911242604</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1635220125786163</v>
+        <v>0.1775147928994083</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7037037037037037</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06735751295336788</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02590673575129534</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04145077720207254</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3005181347150259</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0155440414507772</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1398963730569948</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="R6">
-        <v>0.07253886010362694</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S6">
-        <v>0.3367875647668394</v>
+        <v>0.337962962962963</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09142857142857143</v>
+        <v>0.095</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02285714285714286</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
-        <v>0.005714285714285714</v>
+        <v>0.005</v>
       </c>
       <c r="F7">
-        <v>0.04571428571428571</v>
+        <v>0.045</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1085714285714286</v>
+        <v>0.115</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02857142857142857</v>
+        <v>0.025</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1657142857142857</v>
+        <v>0.165</v>
       </c>
       <c r="R7">
-        <v>0.05714285714285714</v>
+        <v>0.055</v>
       </c>
       <c r="S7">
-        <v>0.4742857142857143</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09090909090909091</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01691331923890063</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06553911205073996</v>
+        <v>0.0599250936329588</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1162790697674419</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02536997885835095</v>
+        <v>0.02434456928838951</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1585623678646934</v>
+        <v>0.1629213483146068</v>
       </c>
       <c r="R8">
-        <v>0.08456659619450317</v>
+        <v>0.08801498127340825</v>
       </c>
       <c r="S8">
-        <v>0.4418604651162791</v>
+        <v>0.451310861423221</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0763888888888889</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1041666666666667</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006944444444444444</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1805555555555556</v>
+        <v>0.18</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="S9">
-        <v>0.4652777777777778</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1143641354071363</v>
+        <v>0.1084634346754314</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01097895699908509</v>
+        <v>0.01232539030402629</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06587374199451052</v>
+        <v>0.06655710764174198</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1171088746569076</v>
+        <v>0.1150369761709121</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01555352241537054</v>
+        <v>0.0180772391125719</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.202195791399817</v>
+        <v>0.2013147082990961</v>
       </c>
       <c r="R10">
-        <v>0.07502287282708142</v>
+        <v>0.07641741988496302</v>
       </c>
       <c r="S10">
-        <v>0.3989021043000915</v>
+        <v>0.4018077239112572</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1557093425605536</v>
+        <v>0.1557632398753894</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07958477508650519</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="K11">
-        <v>0.1903114186851211</v>
+        <v>0.1931464174454829</v>
       </c>
       <c r="L11">
-        <v>0.5674740484429066</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006920415224913495</v>
+        <v>0.006230529595015576</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6964285714285714</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2321428571428572</v>
+        <v>0.2311827956989247</v>
       </c>
       <c r="K12">
-        <v>0.0119047619047619</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="L12">
-        <v>0.01785714285714286</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04166666666666666</v>
+        <v>0.03763440860215054</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5348837209302325</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3953488372093023</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06976744186046512</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02590673575129534</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2124352331606218</v>
+        <v>0.2146118721461187</v>
       </c>
       <c r="I15">
-        <v>0.07253886010362694</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="J15">
-        <v>0.2849740932642487</v>
+        <v>0.2694063926940639</v>
       </c>
       <c r="K15">
-        <v>0.08290155440414508</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02072538860103627</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08808290155440414</v>
+        <v>0.1004566210045662</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2124352331606218</v>
+        <v>0.2146118721461187</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02325581395348837</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1976744186046512</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I16">
-        <v>0.08139534883720931</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="J16">
-        <v>0.3779069767441861</v>
+        <v>0.3798882681564246</v>
       </c>
       <c r="K16">
-        <v>0.1279069767441861</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01162790697674419</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06395348837209303</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1162790697674419</v>
+        <v>0.111731843575419</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01846965699208443</v>
+        <v>0.01900237529691211</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2163588390501319</v>
+        <v>0.2114014251781473</v>
       </c>
       <c r="I17">
-        <v>0.0554089709762533</v>
+        <v>0.05463182897862233</v>
       </c>
       <c r="J17">
-        <v>0.3931398416886543</v>
+        <v>0.3895486935866984</v>
       </c>
       <c r="K17">
-        <v>0.09762532981530343</v>
+        <v>0.1045130641330166</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01846965699208443</v>
+        <v>0.02137767220902613</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0712401055408971</v>
+        <v>0.07363420427553444</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.129287598944591</v>
+        <v>0.1258907363420428</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01257861635220126</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.220125786163522</v>
+        <v>0.2430939226519337</v>
       </c>
       <c r="I18">
-        <v>0.06289308176100629</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="J18">
-        <v>0.389937106918239</v>
+        <v>0.3867403314917127</v>
       </c>
       <c r="K18">
-        <v>0.1257861635220126</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01886792452830189</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05031446540880503</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.119496855345912</v>
+        <v>0.1160220994475138</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01602023608768971</v>
+        <v>0.01656626506024097</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2377740303541315</v>
+        <v>0.2417168674698795</v>
       </c>
       <c r="I19">
-        <v>0.07419898819561552</v>
+        <v>0.06852409638554217</v>
       </c>
       <c r="J19">
-        <v>0.3473861720067454</v>
+        <v>0.3509036144578313</v>
       </c>
       <c r="K19">
-        <v>0.1138279932546374</v>
+        <v>0.1129518072289157</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02613827993254637</v>
+        <v>0.02635542168674699</v>
       </c>
       <c r="N19">
-        <v>0.0008431703204047217</v>
+        <v>0.0007530120481927711</v>
       </c>
       <c r="O19">
-        <v>0.05986509274873524</v>
+        <v>0.05798192771084337</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1239460370994941</v>
+        <v>0.1242469879518072</v>
       </c>
     </row>
   </sheetData>
